--- a/public/imports/paegtm_dzo_aegtm.xlsx
+++ b/public/imports/paegtm_dzo_aegtm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\abai.dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1C82B9-3310-47C4-B856-35924EF04B2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0A3E8-3B1A-45BB-ADD6-0E7BBB3C97B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12228" xr2:uid="{200B4F7D-E72B-4DBA-A41B-CBD645F5249E}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B19500-57B6-4599-AD88-6B510E818193}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4742,7 +4742,7 @@
         <v>13</v>
       </c>
       <c r="O31" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3">
         <v>14.306999999999999</v>
@@ -4754,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="S31" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3">
         <v>14.602</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P37" s="3">
         <v>23.827999999999996</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T37" s="3">
         <v>25.445999999999998</v>
